--- a/K-LIN/報告用/sensor/sensor/infraded-sensor.xlsx
+++ b/K-LIN/報告用/sensor/sensor/infraded-sensor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbtan\Desktop\sensor\sensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\K-LIN\K-LIN\報告用\sensor\sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,7 +174,6 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
-              <a:prstDash val="sysDash"/>
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
@@ -342,6 +341,465 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>工作表1!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>工作表1!$B:$B</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -795,465 +1253,6 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0.29296875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>工作表1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <f>D1*5/1024</f>
+        <f t="shared" ref="B1:B32" si="0">D1*5/1024</f>
         <v>0.810546875</v>
       </c>
       <c r="D1">
@@ -2523,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>D2*5/1024</f>
+        <f t="shared" si="0"/>
         <v>1.6845703125</v>
       </c>
       <c r="D2">
@@ -2532,11 +2531,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">SUM(A2)+1</f>
+        <f t="shared" ref="A3:A66" si="1">SUM(A2)+1</f>
         <v>3</v>
       </c>
       <c r="B3">
-        <f>D3*5/1024</f>
+        <f t="shared" si="0"/>
         <v>1.728515625</v>
       </c>
       <c r="D3">
@@ -2545,11 +2544,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f>D4*5/1024</f>
         <v>1.845703125</v>
       </c>
       <c r="D4">
@@ -2558,11 +2557,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f>D5*5/1024</f>
         <v>1.9189453125</v>
       </c>
       <c r="D5">
@@ -2571,11 +2570,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>D6*5/1024</f>
         <v>1.97265625</v>
       </c>
       <c r="D6">
@@ -2584,11 +2583,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <f>D7*5/1024</f>
         <v>2.05078125</v>
       </c>
       <c r="D7">
@@ -2597,11 +2596,11 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <f>D8*5/1024</f>
         <v>2.3828125</v>
       </c>
       <c r="D8">
@@ -2610,11 +2609,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <f>D9*5/1024</f>
         <v>2.6806640625</v>
       </c>
       <c r="D9">
@@ -2623,11 +2622,11 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f>D10*5/1024</f>
         <v>2.802734375</v>
       </c>
       <c r="D10">
@@ -2636,11 +2635,11 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <f>D11*5/1024</f>
         <v>2.8173828125</v>
       </c>
       <c r="D11">
@@ -2649,11 +2648,11 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <f>D12*5/1024</f>
         <v>2.7880859375</v>
       </c>
       <c r="D12">
@@ -2662,11 +2661,11 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <f>D13*5/1024</f>
         <v>2.7490234375</v>
       </c>
       <c r="D13">
@@ -2675,11 +2674,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <f>D14*5/1024</f>
         <v>2.71484375</v>
       </c>
       <c r="D14">
@@ -2688,11 +2687,11 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <f>D15*5/1024</f>
         <v>2.666015625</v>
       </c>
       <c r="D15">
@@ -2701,11 +2700,11 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <f>D16*5/1024</f>
         <v>2.6123046875</v>
       </c>
       <c r="D16">
@@ -2714,11 +2713,11 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <f>D17*5/1024</f>
         <v>2.568359375</v>
       </c>
       <c r="D17">
@@ -2727,11 +2726,11 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <f>D18*5/1024</f>
         <v>2.509765625</v>
       </c>
       <c r="D18">
@@ -2740,11 +2739,11 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <f>D19*5/1024</f>
         <v>2.4609375</v>
       </c>
       <c r="D19">
@@ -2753,11 +2752,11 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <f>D20*5/1024</f>
         <v>2.4072265625</v>
       </c>
       <c r="D20">
@@ -2766,11 +2765,11 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <f>D21*5/1024</f>
         <v>2.353515625</v>
       </c>
       <c r="D21">
@@ -2779,11 +2778,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <f>D22*5/1024</f>
         <v>2.2998046875</v>
       </c>
       <c r="D22">
@@ -2792,11 +2791,11 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <f>D23*5/1024</f>
         <v>2.2412109375</v>
       </c>
       <c r="D23">
@@ -2805,11 +2804,11 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <f>D24*5/1024</f>
         <v>2.1875</v>
       </c>
       <c r="D24">
@@ -2818,11 +2817,11 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B25">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <f>D25*5/1024</f>
         <v>2.1337890625</v>
       </c>
       <c r="D25">
@@ -2831,11 +2830,11 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B26">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <f>D26*5/1024</f>
         <v>2.060546875</v>
       </c>
       <c r="D26">
@@ -2844,11 +2843,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <f>D27*5/1024</f>
         <v>2.0068359375</v>
       </c>
       <c r="D27">
@@ -2857,11 +2856,11 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B28">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <f>D28*5/1024</f>
         <v>1.9677734375</v>
       </c>
       <c r="D28">
@@ -2870,11 +2869,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B29">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <f>D29*5/1024</f>
         <v>1.9091796875</v>
       </c>
       <c r="D29">
@@ -2883,11 +2882,11 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B30">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <f>D30*5/1024</f>
         <v>1.85546875</v>
       </c>
       <c r="D30">
@@ -2896,11 +2895,11 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B31">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <f>D31*5/1024</f>
         <v>1.8017578125</v>
       </c>
       <c r="D31">
@@ -2909,11 +2908,11 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B32">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <f>D32*5/1024</f>
         <v>1.7431640625</v>
       </c>
       <c r="D32">
@@ -2922,11 +2921,11 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B33">
-        <f>D33*5/1024</f>
+        <f t="shared" ref="B33:B64" si="2">D33*5/1024</f>
         <v>1.7138671875</v>
       </c>
       <c r="D33">
@@ -2935,11 +2934,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B34">
-        <f>D34*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.650390625</v>
       </c>
       <c r="D34">
@@ -2948,11 +2947,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B35">
-        <f>D35*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.6162109375</v>
       </c>
       <c r="D35">
@@ -2961,11 +2960,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B36">
-        <f>D36*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.5625</v>
       </c>
       <c r="D36">
@@ -2974,11 +2973,11 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B37">
-        <f>D37*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.5234375</v>
       </c>
       <c r="D37">
@@ -2987,11 +2986,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B38">
-        <f>D38*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.4794921875</v>
       </c>
       <c r="D38">
@@ -3000,11 +2999,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B39">
-        <f>D39*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.4453125</v>
       </c>
       <c r="D39">
@@ -3013,11 +3012,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B40">
-        <f>D40*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.416015625</v>
       </c>
       <c r="D40">
@@ -3026,11 +3025,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B41">
-        <f>D41*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.38671875</v>
       </c>
       <c r="D41">
@@ -3039,11 +3038,11 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B42">
-        <f>D42*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.34765625</v>
       </c>
       <c r="D42">
@@ -3052,11 +3051,11 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B43">
-        <f>D43*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.3134765625</v>
       </c>
       <c r="D43">
@@ -3065,11 +3064,11 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B44">
-        <f>D44*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.2890625</v>
       </c>
       <c r="D44">
@@ -3078,11 +3077,11 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B45">
-        <f>D45*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.2548828125</v>
       </c>
       <c r="D45">
@@ -3091,11 +3090,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B46">
-        <f>D46*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.2353515625</v>
       </c>
       <c r="D46">
@@ -3104,11 +3103,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B47">
-        <f>D47*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.201171875</v>
       </c>
       <c r="D47">
@@ -3117,11 +3116,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B48">
-        <f>D48*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.171875</v>
       </c>
       <c r="D48">
@@ -3130,11 +3129,11 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B49">
-        <f>D49*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.1572265625</v>
       </c>
       <c r="D49">
@@ -3143,11 +3142,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B50">
-        <f>D50*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.1376953125</v>
       </c>
       <c r="D50">
@@ -3156,11 +3155,11 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B51">
-        <f>D51*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.11328125</v>
       </c>
       <c r="D51">
@@ -3169,11 +3168,11 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B52">
-        <f>D52*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.07421875</v>
       </c>
       <c r="D52">
@@ -3182,11 +3181,11 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B53">
-        <f>D53*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.0595703125</v>
       </c>
       <c r="D53">
@@ -3195,11 +3194,11 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B54">
-        <f>D54*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.03515625</v>
       </c>
       <c r="D54">
@@ -3208,11 +3207,11 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B55">
-        <f>D55*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.015625</v>
       </c>
       <c r="D55">
@@ -3221,11 +3220,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B56">
-        <f>D56*5/1024</f>
+        <f t="shared" si="2"/>
         <v>1.0009765625</v>
       </c>
       <c r="D56">
@@ -3234,11 +3233,11 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B57">
-        <f>D57*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.9912109375</v>
       </c>
       <c r="D57">
@@ -3247,11 +3246,11 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B58">
-        <f>D58*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.966796875</v>
       </c>
       <c r="D58">
@@ -3260,11 +3259,11 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B59">
-        <f>D59*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.95703125</v>
       </c>
       <c r="D59">
@@ -3273,11 +3272,11 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B60">
-        <f>D60*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
       <c r="D60">
@@ -3286,11 +3285,11 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B61">
-        <f>D61*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.927734375</v>
       </c>
       <c r="D61">
@@ -3299,11 +3298,11 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B62">
-        <f>D62*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.9033203125</v>
       </c>
       <c r="D62">
@@ -3312,11 +3311,11 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B63">
-        <f>D63*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.8837890625</v>
       </c>
       <c r="D63">
@@ -3325,11 +3324,11 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B64">
-        <f>D64*5/1024</f>
+        <f t="shared" si="2"/>
         <v>0.869140625</v>
       </c>
       <c r="D64">
@@ -3338,11 +3337,11 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B65">
-        <f>D65*5/1024</f>
+        <f t="shared" ref="B65:B96" si="3">D65*5/1024</f>
         <v>0.859375</v>
       </c>
       <c r="D65">
@@ -3351,11 +3350,11 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B66">
-        <f>D66*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.8447265625</v>
       </c>
       <c r="D66">
@@ -3364,11 +3363,11 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="1">SUM(A66)+1</f>
+        <f t="shared" ref="A67:A130" si="4">SUM(A66)+1</f>
         <v>67</v>
       </c>
       <c r="B67">
-        <f>D67*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.8203125</v>
       </c>
       <c r="D67">
@@ -3377,11 +3376,11 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B68">
-        <f>D68*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.8203125</v>
       </c>
       <c r="D68">
@@ -3390,11 +3389,11 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B69">
-        <f>D69*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.8056640625</v>
       </c>
       <c r="D69">
@@ -3403,11 +3402,11 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B70">
-        <f>D70*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.7958984375</v>
       </c>
       <c r="D70">
@@ -3416,11 +3415,11 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B71">
-        <f>D71*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.78125</v>
       </c>
       <c r="D71">
@@ -3429,11 +3428,11 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B72">
-        <f>D72*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.7763671875</v>
       </c>
       <c r="D72">
@@ -3442,11 +3441,11 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B73">
-        <f>D73*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.7763671875</v>
       </c>
       <c r="D73">
@@ -3455,11 +3454,11 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B74">
-        <f>D74*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.76171875</v>
       </c>
       <c r="D74">
@@ -3468,11 +3467,11 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B75">
-        <f>D75*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.7421875</v>
       </c>
       <c r="D75">
@@ -3481,11 +3480,11 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B76">
-        <f>D76*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.7373046875</v>
       </c>
       <c r="D76">
@@ -3494,11 +3493,11 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B77">
-        <f>D77*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.72265625</v>
       </c>
       <c r="D77">
@@ -3507,11 +3506,11 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B78">
-        <f>D78*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.7177734375</v>
       </c>
       <c r="D78">
@@ -3520,11 +3519,11 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B79">
-        <f>D79*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6982421875</v>
       </c>
       <c r="D79">
@@ -3533,11 +3532,11 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B80">
-        <f>D80*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6982421875</v>
       </c>
       <c r="D80">
@@ -3546,11 +3545,11 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B81">
-        <f>D81*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.68359375</v>
       </c>
       <c r="D81">
@@ -3559,11 +3558,11 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B82">
-        <f>D82*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.68359375</v>
       </c>
       <c r="D82">
@@ -3572,11 +3571,11 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B83">
-        <f>D83*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.673828125</v>
       </c>
       <c r="D83">
@@ -3585,11 +3584,11 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B84">
-        <f>D84*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6689453125</v>
       </c>
       <c r="D84">
@@ -3598,11 +3597,11 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B85">
-        <f>D85*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6591796875</v>
       </c>
       <c r="D85">
@@ -3611,11 +3610,11 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B86">
-        <f>D86*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.64453125</v>
       </c>
       <c r="D86">
@@ -3624,11 +3623,11 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B87">
-        <f>D87*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6396484375</v>
       </c>
       <c r="D87">
@@ -3637,11 +3636,11 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B88">
-        <f>D88*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6298828125</v>
       </c>
       <c r="D88">
@@ -3650,11 +3649,11 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B89">
-        <f>D89*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6201171875</v>
       </c>
       <c r="D89">
@@ -3663,11 +3662,11 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B90">
-        <f>D90*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.615234375</v>
       </c>
       <c r="D90">
@@ -3676,11 +3675,11 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B91">
-        <f>D91*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6005859375</v>
       </c>
       <c r="D91">
@@ -3689,11 +3688,11 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B92">
-        <f>D92*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.6005859375</v>
       </c>
       <c r="D92">
@@ -3702,11 +3701,11 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B93">
-        <f>D93*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.5810546875</v>
       </c>
       <c r="D93">
@@ -3715,11 +3714,11 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B94">
-        <f>D94*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.576171875</v>
       </c>
       <c r="D94">
@@ -3728,11 +3727,11 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B95">
-        <f>D95*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.576171875</v>
       </c>
       <c r="D95">
@@ -3741,11 +3740,11 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B96">
-        <f>D96*5/1024</f>
+        <f t="shared" si="3"/>
         <v>0.56640625</v>
       </c>
       <c r="D96">
@@ -3754,11 +3753,11 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B97">
-        <f>D97*5/1024</f>
+        <f t="shared" ref="B97:B128" si="5">D97*5/1024</f>
         <v>0.5517578125</v>
       </c>
       <c r="D97">
@@ -3767,11 +3766,11 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B98">
-        <f>D98*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.546875</v>
       </c>
       <c r="D98">
@@ -3780,11 +3779,11 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B99">
-        <f>D99*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.52734375</v>
       </c>
       <c r="D99">
@@ -3793,11 +3792,11 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B100">
-        <f>D100*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.5322265625</v>
       </c>
       <c r="D100">
@@ -3806,11 +3805,11 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="B101">
-        <f>D101*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.5224609375</v>
       </c>
       <c r="D101">
@@ -3819,11 +3818,11 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B102">
-        <f>D102*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.5126953125</v>
       </c>
       <c r="D102">
@@ -3832,11 +3831,11 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B103">
-        <f>D103*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.5078125</v>
       </c>
       <c r="D103">
@@ -3845,11 +3844,11 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="B104">
-        <f>D104*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.5078125</v>
       </c>
       <c r="D104">
@@ -3858,11 +3857,11 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="B105">
-        <f>D105*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4931640625</v>
       </c>
       <c r="D105">
@@ -3871,11 +3870,11 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="B106">
-        <f>D106*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4931640625</v>
       </c>
       <c r="D106">
@@ -3884,11 +3883,11 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="B107">
-        <f>D107*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.48828125</v>
       </c>
       <c r="D107">
@@ -3897,11 +3896,11 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="B108">
-        <f>D108*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4736328125</v>
       </c>
       <c r="D108">
@@ -3910,11 +3909,11 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="B109">
-        <f>D109*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.46875</v>
       </c>
       <c r="D109">
@@ -3923,11 +3922,11 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="B110">
-        <f>D110*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.46875</v>
       </c>
       <c r="D110">
@@ -3936,11 +3935,11 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="B111">
-        <f>D111*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4638671875</v>
       </c>
       <c r="D111">
@@ -3949,11 +3948,11 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="B112">
-        <f>D112*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4541015625</v>
       </c>
       <c r="D112">
@@ -3962,11 +3961,11 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="B113">
-        <f>D113*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.44921875</v>
       </c>
       <c r="D113">
@@ -3975,11 +3974,11 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="B114">
-        <f>D114*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.44921875</v>
       </c>
       <c r="D114">
@@ -3988,11 +3987,11 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="B115">
-        <f>D115*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.439453125</v>
       </c>
       <c r="D115">
@@ -4001,11 +4000,11 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="B116">
-        <f>D116*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4296875</v>
       </c>
       <c r="D116">
@@ -4014,11 +4013,11 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="B117">
-        <f>D117*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4296875</v>
       </c>
       <c r="D117">
@@ -4027,11 +4026,11 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="B118">
-        <f>D118*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4296875</v>
       </c>
       <c r="D118">
@@ -4040,11 +4039,11 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="B119">
-        <f>D119*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4248046875</v>
       </c>
       <c r="D119">
@@ -4053,11 +4052,11 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="B120">
-        <f>D120*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.41015625</v>
       </c>
       <c r="D120">
@@ -4066,11 +4065,11 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="B121">
-        <f>D121*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.41015625</v>
       </c>
       <c r="D121">
@@ -4079,11 +4078,11 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="B122">
-        <f>D122*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4052734375</v>
       </c>
       <c r="D122">
@@ -4092,11 +4091,11 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="B123">
-        <f>D123*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.4052734375</v>
       </c>
       <c r="D123">
@@ -4105,11 +4104,11 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="B124">
-        <f>D124*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.390625</v>
       </c>
       <c r="D124">
@@ -4118,11 +4117,11 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="B125">
-        <f>D125*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.3857421875</v>
       </c>
       <c r="D125">
@@ -4131,11 +4130,11 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="B126">
-        <f>D126*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.3857421875</v>
       </c>
       <c r="D126">
@@ -4144,11 +4143,11 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="B127">
-        <f>D127*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.3857421875</v>
       </c>
       <c r="D127">
@@ -4157,11 +4156,11 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="B128">
-        <f>D128*5/1024</f>
+        <f t="shared" si="5"/>
         <v>0.380859375</v>
       </c>
       <c r="D128">
@@ -4170,11 +4169,11 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="B129">
-        <f>D129*5/1024</f>
+        <f t="shared" ref="B129:B150" si="6">D129*5/1024</f>
         <v>0.3759765625</v>
       </c>
       <c r="D129">
@@ -4183,11 +4182,11 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B130">
-        <f>D130*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.37109375</v>
       </c>
       <c r="D130">
@@ -4196,11 +4195,11 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" ref="A131:A150" si="2">SUM(A130)+1</f>
+        <f t="shared" ref="A131:A150" si="7">SUM(A130)+1</f>
         <v>131</v>
       </c>
       <c r="B131">
-        <f>D131*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.37109375</v>
       </c>
       <c r="D131">
@@ -4209,11 +4208,11 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="B132">
-        <f>D132*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3662109375</v>
       </c>
       <c r="D132">
@@ -4222,11 +4221,11 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="B133">
-        <f>D133*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3564453125</v>
       </c>
       <c r="D133">
@@ -4235,11 +4234,11 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
       <c r="B134">
-        <f>D134*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3515625</v>
       </c>
       <c r="D134">
@@ -4248,11 +4247,11 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
       <c r="B135">
-        <f>D135*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3515625</v>
       </c>
       <c r="D135">
@@ -4261,11 +4260,11 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
       <c r="B136">
-        <f>D136*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3515625</v>
       </c>
       <c r="D136">
@@ -4274,11 +4273,11 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>137</v>
       </c>
       <c r="B137">
-        <f>D137*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3515625</v>
       </c>
       <c r="D137">
@@ -4287,11 +4286,11 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="B138">
-        <f>D138*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3369140625</v>
       </c>
       <c r="D138">
@@ -4300,11 +4299,11 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="B139">
-        <f>D139*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.33203125</v>
       </c>
       <c r="D139">
@@ -4313,11 +4312,11 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="B140">
-        <f>D140*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.33203125</v>
       </c>
       <c r="D140">
@@ -4326,11 +4325,11 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="B141">
-        <f>D141*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.33203125</v>
       </c>
       <c r="D141">
@@ -4339,11 +4338,11 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="B142">
-        <f>D142*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.33203125</v>
       </c>
       <c r="D142">
@@ -4352,11 +4351,11 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B143">
-        <f>D143*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.322265625</v>
       </c>
       <c r="D143">
@@ -4365,11 +4364,11 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="B144">
-        <f>D144*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3173828125</v>
       </c>
       <c r="D144">
@@ -4378,11 +4377,11 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
       <c r="B145">
-        <f>D145*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3125</v>
       </c>
       <c r="D145">
@@ -4391,11 +4390,11 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="B146">
-        <f>D146*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3125</v>
       </c>
       <c r="D146">
@@ -4404,11 +4403,11 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="B147">
-        <f>D147*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3125</v>
       </c>
       <c r="D147">
@@ -4417,11 +4416,11 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>148</v>
       </c>
       <c r="B148">
-        <f>D148*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.3076171875</v>
       </c>
       <c r="D148">
@@ -4430,11 +4429,11 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>149</v>
       </c>
       <c r="B149">
-        <f>D149*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.2978515625</v>
       </c>
       <c r="D149">
@@ -4443,11 +4442,11 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="B150">
-        <f>D150*5/1024</f>
+        <f t="shared" si="6"/>
         <v>0.29296875</v>
       </c>
       <c r="D150">
